--- a/测试样例/母表工具功能/测试本地表不是SVN最新版时提交，选择完处理差异方式后提交发现SVN中又有了更新版本/SVN表 版本3（需在差异处理方式选择界面选完所有处理方式即将点击“提交”时传到SVN）.xlsx
+++ b/测试样例/母表工具功能/测试本地表不是SVN最新版时提交，选择完处理差异方式后提交发现SVN中又有了更新版本/SVN表 版本3（需在差异处理方式选择界面选完所有处理方式即将点击“提交”时传到SVN）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\国际化文本工具\LangTextTools\测试样例\母表工具功能\测试本地表不是SVN最新版时提交，选择完处理差异方式后提交发现SVN中又有了更新版本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\国际化文本工具 1.1\LangTextTools\测试样例\母表工具功能\测试本地表不是SVN最新版时提交，选择完处理差异方式后提交发现SVN中又有了更新版本\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>中文（主语言）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>只有本地表没有，但SVN3版本主语言与1、2版本不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,74 +191,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -270,7 +210,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -575,6 +515,9 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
@@ -585,6 +528,9 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
